--- a/biology/Médecine/Jean_Gautier_(médecin)/Jean_Gautier_(médecin).xlsx
+++ b/biology/Médecine/Jean_Gautier_(médecin)/Jean_Gautier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Gautier_(m%C3%A9decin)</t>
+          <t>Jean_Gautier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Gautier est un médecin français né à Rezé en province de Bretagne en 1678 et mort le 9 octobre 1743 à Montmorot. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Gautier_(m%C3%A9decin)</t>
+          <t>Jean_Gautier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chirurgien navigant, docteur régent de la Faculté de médecine de Nantes[1], il devient médecin chef de la Compagnie des Indes à Lorient en 1716[2]. 
-Il est le premier Français à inventer une machine à distiller l'eau de mer[3], que le Régent Philippe d'Orléans fait expérimenter à bord du Triton, navire partant pour le Sénégal en 1717[4]. 
-Il devient par la suite médecin-chef (chimiste[3]) des salines de Lorraine et meurt le 9 octobre 1743 à Montmorot dans le Jura[5],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chirurgien navigant, docteur régent de la Faculté de médecine de Nantes, il devient médecin chef de la Compagnie des Indes à Lorient en 1716. 
+Il est le premier Français à inventer une machine à distiller l'eau de mer, que le Régent Philippe d'Orléans fait expérimenter à bord du Triton, navire partant pour le Sénégal en 1717. 
+Il devient par la suite médecin-chef (chimiste) des salines de Lorraine et meurt le 9 octobre 1743 à Montmorot dans le Jura,.
 </t>
         </is>
       </c>
